--- a/excel/boss_config.xlsx
+++ b/excel/boss_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="21000" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -59,7 +59,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>any</t>
+    <t>serve_no</t>
+  </si>
+  <si>
+    <t>client</t>
   </si>
   <si>
     <t>拳击手</t>
@@ -1241,21 +1244,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1296296296296" customWidth="1"/>
     <col min="2" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:4">
+    <row r="1" ht="15.6" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:4">
+    <row r="2" ht="15.6" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:4">
+    <row r="3" ht="15.6" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1291,65 +1294,81 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" ht="15.6" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1000</v>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4"/>
@@ -1375,6 +1394,18 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excel/boss_config.xlsx
+++ b/excel/boss_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12780"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -703,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,9 +715,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1244,21 +1241,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="11.1333333333333" customWidth="1"/>
     <col min="2" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:4">
+    <row r="1" ht="16.5" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:4">
+    <row r="2" ht="16.5" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1286,7 +1283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:4">
+    <row r="3" ht="16.5" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:4">
+    <row r="4" ht="16.5" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:4">
+    <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1339,7 +1336,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1353,7 +1350,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="3">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1367,44 +1364,106 @@
         <v>17</v>
       </c>
       <c r="D8" s="3">
-        <v>10000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/boss_config.xlsx
+++ b/excel/boss_config.xlsx
@@ -1246,7 +1246,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1350,7 +1350,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1364,7 +1364,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="3">
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1378,7 +1378,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="3">
-        <v>10000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1392,7 +1392,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="3">
-        <v>10000</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1406,7 +1406,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="3">
-        <v>10000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1420,7 +1420,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="3">
-        <v>10000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1434,7 +1434,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="3">
-        <v>10000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1448,7 +1448,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="3">
-        <v>10000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1462,7 +1462,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="3">
-        <v>10000</v>
+        <v>550000</v>
       </c>
     </row>
   </sheetData>

--- a/excel/boss_config.xlsx
+++ b/excel/boss_config.xlsx
@@ -1246,7 +1246,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1350,7 +1350,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="3">
-        <v>100</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1364,7 +1364,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="3">
-        <v>210</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:4">
